--- a/report/facture/mmi.xlsx
+++ b/report/facture/mmi.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Voucher Summary" sheetId="1" r:id="rId4"/>
-    <sheet name="2018-07-27" sheetId="2" r:id="rId5"/>
+    <sheet name="Bill Details" sheetId="2" r:id="rId5"/>
     <sheet name="Worksheet" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
@@ -17,36 +17,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="283">
   <si>
     <t>PROVINCE / MVK</t>
   </si>
   <si>
-    <t>WESTERN</t>
+    <t>SOUTHERN</t>
   </si>
   <si>
     <t>ADMINISTRATIVE DISTRICT</t>
   </si>
   <si>
-    <t>RUSIZI</t>
+    <t>RUHANGO</t>
   </si>
   <si>
     <t>Period</t>
   </si>
   <si>
-    <t>07/2018</t>
+    <t>12/2019</t>
   </si>
   <si>
     <t>ADMINISTRATIVE SECTION</t>
   </si>
   <si>
-    <t>KAMEMBE</t>
+    <t>KIGOMA</t>
   </si>
   <si>
     <t>HEALTH FACILITY</t>
   </si>
   <si>
-    <t>GIHUNDWE HEALTH CENTER</t>
+    <t>KIGOMA HEALTH CENTER</t>
   </si>
   <si>
     <t>CODE / HEALTH FACILITY</t>
@@ -55,7 +55,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>RELEVE DES FACTURES A L'ASSURANCE MALADIE DES MILITAIRES (MMI) No 2018/07</t>
+    <t>RELEVE DES FACTURES A L'ASSURANCE MALADIE DES MILITAIRES (MMI) No 2019/12</t>
   </si>
   <si>
     <t>No</t>
@@ -109,25 +109,763 @@
     <t>CPC</t>
   </si>
   <si>
-    <t>2018-07-01</t>
-  </si>
-  <si>
-    <t>0054393-01</t>
-  </si>
-  <si>
-    <t>Mukanyindo fortunee</t>
-  </si>
-  <si>
-    <t>0054393-04</t>
-  </si>
-  <si>
-    <t>NKURUNZIZA MARIE Clevine</t>
+    <t>20191201B1</t>
+  </si>
+  <si>
+    <t>2019-12-01</t>
+  </si>
+  <si>
+    <t>056448-00</t>
+  </si>
+  <si>
+    <t>Nkurayija Aphrodis</t>
+  </si>
+  <si>
+    <t>20191201B2</t>
+  </si>
+  <si>
+    <t>0111868-02</t>
+  </si>
+  <si>
+    <t>IRAKOZE Nathan Godwin</t>
+  </si>
+  <si>
+    <t>01118868-00</t>
+  </si>
+  <si>
+    <t>PST</t>
+  </si>
+  <si>
+    <t>20191201B3</t>
+  </si>
+  <si>
+    <t>6000277-32</t>
+  </si>
+  <si>
+    <t>mutoni irene</t>
+  </si>
+  <si>
+    <t>6000277-00</t>
+  </si>
+  <si>
+    <t>20191202B1</t>
+  </si>
+  <si>
+    <t>2019-12-02</t>
+  </si>
+  <si>
+    <t>6011721-31</t>
+  </si>
+  <si>
+    <t>bebe]UWIRINGIYIMANA Ester</t>
+  </si>
+  <si>
+    <t>pc hafgashimana sylvestre</t>
+  </si>
+  <si>
+    <t>20191203B1</t>
+  </si>
+  <si>
+    <t>2019-12-03</t>
+  </si>
+  <si>
+    <t>0110565-02</t>
+  </si>
+  <si>
+    <t>muhire raissa keilla</t>
+  </si>
+  <si>
+    <t>muhire jean cloude</t>
+  </si>
+  <si>
+    <t>20191203B2</t>
+  </si>
+  <si>
+    <t>0046533-01</t>
+  </si>
+  <si>
+    <t>bankundiye Beathe</t>
+  </si>
+  <si>
+    <t>sgt Harerimana Narcisse</t>
+  </si>
+  <si>
+    <t>20191204B1</t>
+  </si>
+  <si>
+    <t>2019-12-04</t>
+  </si>
+  <si>
+    <t>0041098-06</t>
+  </si>
+  <si>
+    <t>kayirange patrick</t>
+  </si>
+  <si>
+    <t>0041098-00</t>
+  </si>
+  <si>
+    <t>20191205B1</t>
+  </si>
+  <si>
+    <t>2019-12-05</t>
+  </si>
+  <si>
+    <t>0011194-02</t>
+  </si>
+  <si>
+    <t>UMUTONI PROVIDENCE</t>
+  </si>
+  <si>
+    <t>ssgt mwumvaneza andre</t>
+  </si>
+  <si>
+    <t>20191206B1</t>
+  </si>
+  <si>
+    <t>2019-12-06</t>
+  </si>
+  <si>
+    <t>0089557-04</t>
+  </si>
+  <si>
+    <t>NSHIMIYE HIRWA CEDRQUE</t>
+  </si>
+  <si>
+    <t>20191206B2</t>
+  </si>
+  <si>
+    <t>0062075-03</t>
+  </si>
+  <si>
+    <t>uwamungu kevine</t>
+  </si>
+  <si>
+    <t>cpl uwimana aimable</t>
+  </si>
+  <si>
+    <t>20191206B3</t>
+  </si>
+  <si>
+    <t>0116780-01</t>
+  </si>
+  <si>
+    <t>manirafasha ELISABETH</t>
+  </si>
+  <si>
+    <t>0116780-00</t>
+  </si>
+  <si>
+    <t>20191207B1</t>
+  </si>
+  <si>
+    <t>2019-12-07</t>
+  </si>
+  <si>
+    <t>0062075-02</t>
+  </si>
+  <si>
+    <t>MUBARAKA MUGANGA</t>
+  </si>
+  <si>
+    <t>0062075-00</t>
+  </si>
+  <si>
+    <t>20191207B2</t>
+  </si>
+  <si>
+    <t>0113778-02</t>
+  </si>
+  <si>
+    <t>ashimwe elie</t>
+  </si>
+  <si>
+    <t>0113778-00</t>
+  </si>
+  <si>
+    <t>20191208B1</t>
+  </si>
+  <si>
+    <t>2019-12-08</t>
+  </si>
+  <si>
+    <t>0110247-01</t>
+  </si>
+  <si>
+    <t>UZABAKIRIHO GERMAINE</t>
+  </si>
+  <si>
+    <t>cpl maniragaba jean bosco</t>
+  </si>
+  <si>
+    <t>CPN</t>
+  </si>
+  <si>
+    <t>20191209B1</t>
+  </si>
+  <si>
+    <t>2019-12-09</t>
+  </si>
+  <si>
+    <t>MUKAMUNANA Janviere</t>
+  </si>
+  <si>
+    <t>MUHIMPUNDU John</t>
+  </si>
+  <si>
+    <t>20191209B2</t>
+  </si>
+  <si>
+    <t>NYIRAMAHIRWE Dorothee</t>
+  </si>
+  <si>
+    <t>NIRINGIYIMANA J.BAPTISTE</t>
+  </si>
+  <si>
+    <t>20191209B3</t>
+  </si>
+  <si>
+    <t>muhimpundu john</t>
+  </si>
+  <si>
+    <t>20191211B1</t>
+  </si>
+  <si>
+    <t>2019-12-11</t>
+  </si>
+  <si>
+    <t>0116477-01</t>
+  </si>
+  <si>
+    <t>uwase alice</t>
+  </si>
+  <si>
+    <t>pte dusingizimana ephron</t>
+  </si>
+  <si>
+    <t>20191212B1</t>
+  </si>
+  <si>
+    <t>2019-12-12</t>
+  </si>
+  <si>
+    <t>0118030-01</t>
+  </si>
+  <si>
+    <t>IMANISHIMWE JEANNE</t>
+  </si>
+  <si>
+    <t>ptendayizeye richard</t>
+  </si>
+  <si>
+    <t>20191212B2</t>
+  </si>
+  <si>
+    <t>0100164-01</t>
+  </si>
+  <si>
+    <t>NIYINDORERA MARIANNE</t>
+  </si>
+  <si>
+    <t>cpl nsengiyumva emmanuel</t>
+  </si>
+  <si>
+    <t>20191212B3</t>
+  </si>
+  <si>
+    <t>0107253-03</t>
+  </si>
+  <si>
+    <t>abayo kiza praise</t>
+  </si>
+  <si>
+    <t>20191212B4</t>
+  </si>
+  <si>
+    <t>0069728-01</t>
+  </si>
+  <si>
+    <t>uwamahoro margueritte</t>
+  </si>
+  <si>
+    <t>sgt havugimana aphrodis</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>20191213B1</t>
+  </si>
+  <si>
+    <t>2019-12-13</t>
+  </si>
+  <si>
+    <t>mutuyimana alodie</t>
+  </si>
+  <si>
+    <t>kubwayo evode</t>
+  </si>
+  <si>
+    <t>pte kubwayo evode</t>
+  </si>
+  <si>
+    <t>20191213B2</t>
+  </si>
+  <si>
+    <t>musanabera godberthe</t>
+  </si>
+  <si>
+    <t>mpayimana ildephonse</t>
+  </si>
+  <si>
+    <t>20191213B3</t>
+  </si>
+  <si>
+    <t>mpayimana honorine ketiya</t>
+  </si>
+  <si>
+    <t>20191214B1</t>
+  </si>
+  <si>
+    <t>2019-12-14</t>
+  </si>
+  <si>
+    <t>20191215B1</t>
+  </si>
+  <si>
+    <t>2019-12-15</t>
+  </si>
+  <si>
+    <t>TUYISHIMIRE Aline</t>
+  </si>
+  <si>
+    <t>MAHORO Aaron</t>
+  </si>
+  <si>
+    <t>20191216B1</t>
+  </si>
+  <si>
+    <t>2019-12-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0092027-03</t>
+  </si>
+  <si>
+    <t>byiringiro jackson</t>
+  </si>
+  <si>
+    <t>sgt nkundandimana jean bosco</t>
+  </si>
+  <si>
+    <t>20191216B2</t>
+  </si>
+  <si>
+    <t>6015503-30</t>
+  </si>
+  <si>
+    <t>uwimbabazi rehema</t>
+  </si>
+  <si>
+    <t>20191216B3</t>
+  </si>
+  <si>
+    <t>0101885-01</t>
+  </si>
+  <si>
+    <t>niyokwizerwa rose</t>
+  </si>
+  <si>
+    <t>cpl niyibizi jacques</t>
+  </si>
+  <si>
+    <t>20191216B4</t>
+  </si>
+  <si>
+    <t>0106381-01</t>
+  </si>
+  <si>
+    <t>UWIMANA HYCENTHE</t>
+  </si>
+  <si>
+    <t>CPL DUSHIMIMANA ERNESTE</t>
+  </si>
+  <si>
+    <t>20191216B5</t>
+  </si>
+  <si>
+    <t>0107363-03</t>
+  </si>
+  <si>
+    <t>NTIHANABAYO ASHIMWE SERGE</t>
+  </si>
+  <si>
+    <t>CPLNTIHANABAYO JEAN PIERRE</t>
+  </si>
+  <si>
+    <t>20191217B1</t>
+  </si>
+  <si>
+    <t>2019-12-17</t>
+  </si>
+  <si>
+    <t>6006077-33</t>
+  </si>
+  <si>
+    <t>ineza mugabekazi esther</t>
+  </si>
+  <si>
+    <t>sgt yvan celestin mugabo</t>
+  </si>
+  <si>
+    <t>20191217B2</t>
+  </si>
+  <si>
+    <t>20191217B3</t>
+  </si>
+  <si>
+    <t>maniraho clementine</t>
+  </si>
+  <si>
+    <t>matabaro laurant</t>
+  </si>
+  <si>
+    <t>20191218B1</t>
+  </si>
+  <si>
+    <t>2019-12-18</t>
+  </si>
+  <si>
+    <t>0107552-02</t>
+  </si>
+  <si>
+    <t>ishimwe happy alliance</t>
+  </si>
+  <si>
+    <t>pte munyeperu ferdinand</t>
+  </si>
+  <si>
+    <t>20191218B2</t>
+  </si>
+  <si>
+    <t>MUKASINE Sylivie</t>
+  </si>
+  <si>
+    <t>twagirishema emmanuel</t>
+  </si>
+  <si>
+    <t>20191218B3</t>
+  </si>
+  <si>
+    <t>NSABIMANA Prosupeli</t>
+  </si>
+  <si>
+    <t>nsabimana alfred</t>
+  </si>
+  <si>
+    <t>20191218B4</t>
+  </si>
+  <si>
+    <t>6000289-32</t>
+  </si>
+  <si>
+    <t>tuyishimire aline</t>
+  </si>
+  <si>
+    <t>20191218B5</t>
+  </si>
+  <si>
+    <t>0111758-02</t>
+  </si>
+  <si>
+    <t>uwigiciro chance</t>
+  </si>
+  <si>
+    <t>pte maombe chance</t>
+  </si>
+  <si>
+    <t>20191219B1</t>
+  </si>
+  <si>
+    <t>2019-12-19</t>
+  </si>
+  <si>
+    <t>0033104-02</t>
+  </si>
+  <si>
+    <t>kamikazi gitego briella</t>
+  </si>
+  <si>
+    <t>sgt karinganmire emile</t>
+  </si>
+  <si>
+    <t>20191219B2</t>
+  </si>
+  <si>
+    <t>uwingabire melanie</t>
+  </si>
+  <si>
+    <t>harerimana joseph</t>
+  </si>
+  <si>
+    <t>20191219B3</t>
+  </si>
+  <si>
+    <t>UMUTONIWASE CECILE</t>
+  </si>
+  <si>
+    <t>RUTAYISIRE Eric</t>
+  </si>
+  <si>
+    <t>20191220B1</t>
+  </si>
+  <si>
+    <t>2019-12-20</t>
+  </si>
+  <si>
+    <t>0110497-01</t>
+  </si>
+  <si>
+    <t>umutoni marie aimee</t>
+  </si>
+  <si>
+    <t>20191220B2</t>
+  </si>
+  <si>
+    <t>20191220B3</t>
+  </si>
+  <si>
+    <t>20191221B1</t>
+  </si>
+  <si>
+    <t>2019-12-21</t>
+  </si>
+  <si>
+    <t>6003277-30</t>
+  </si>
+  <si>
+    <t>aip eugene mugiraneza</t>
+  </si>
+  <si>
+    <t>20191222B1</t>
+  </si>
+  <si>
+    <t>2019-12-22</t>
+  </si>
+  <si>
+    <t>0103558-01</t>
+  </si>
+  <si>
+    <t>mukamugabo jacqueline</t>
+  </si>
+  <si>
+    <t>cpl nsengimana donath</t>
+  </si>
+  <si>
+    <t>20191222B2</t>
+  </si>
+  <si>
+    <t>0090580-05</t>
+  </si>
+  <si>
+    <t>umuraza chania</t>
+  </si>
+  <si>
+    <t>sgt mbanzabigwi fidele</t>
+  </si>
+  <si>
+    <t>20191223B1</t>
+  </si>
+  <si>
+    <t>2019-12-23</t>
+  </si>
+  <si>
+    <t>0110072-02</t>
+  </si>
+  <si>
+    <t>GIHOZO VANESSA RONISIA</t>
+  </si>
+  <si>
+    <t>0110072-00</t>
+  </si>
+  <si>
+    <t>20191223B2</t>
+  </si>
+  <si>
+    <t>0111593-01</t>
+  </si>
+  <si>
+    <t>20191223B3</t>
+  </si>
+  <si>
+    <t>0094291-02</t>
+  </si>
+  <si>
+    <t>dushimirimana juliette</t>
+  </si>
+  <si>
+    <t>cpl muhawenimana andre</t>
+  </si>
+  <si>
+    <t>20191224B1</t>
+  </si>
+  <si>
+    <t>2019-12-24</t>
+  </si>
+  <si>
+    <t>DUSHIMIMANA Juliette</t>
+  </si>
+  <si>
+    <t>muhawenimana andre</t>
+  </si>
+  <si>
+    <t>20191224B2</t>
+  </si>
+  <si>
+    <t>igihozo ishimwe queen</t>
+  </si>
+  <si>
+    <t>nshimiyimana martin</t>
+  </si>
+  <si>
+    <t>20191225B1</t>
+  </si>
+  <si>
+    <t>2019-12-25</t>
+  </si>
+  <si>
+    <t>0087894-00</t>
+  </si>
+  <si>
+    <t>SAFARI JEAN MARIE VIANNEY</t>
+  </si>
+  <si>
+    <t>20191226B1</t>
+  </si>
+  <si>
+    <t>2019-12-26</t>
+  </si>
+  <si>
+    <t>0112531-01</t>
+  </si>
+  <si>
+    <t>MUTETIWABO FRANCINE</t>
+  </si>
+  <si>
+    <t>MBONIMANA Hosea</t>
+  </si>
+  <si>
+    <t>20191227B1</t>
+  </si>
+  <si>
+    <t>2019-12-27</t>
+  </si>
+  <si>
+    <t>126595-00</t>
+  </si>
+  <si>
+    <t>buzima obed</t>
+  </si>
+  <si>
+    <t>20191227B2</t>
+  </si>
+  <si>
+    <t>093264-03</t>
+  </si>
+  <si>
+    <t>maniriho elias</t>
+  </si>
+  <si>
+    <t>sinabubaraga john</t>
+  </si>
+  <si>
+    <t>20191228B1</t>
+  </si>
+  <si>
+    <t>2019-12-28</t>
+  </si>
+  <si>
+    <t>0065424-02</t>
+  </si>
+  <si>
+    <t>harerimana fiston</t>
+  </si>
+  <si>
+    <t>HARERIMANA Joseph</t>
+  </si>
+  <si>
+    <t>20191228B2</t>
+  </si>
+  <si>
+    <t>0107552-03</t>
+  </si>
+  <si>
+    <t>ineza tory ornella</t>
+  </si>
+  <si>
+    <t>munyeperu ferdinard</t>
+  </si>
+  <si>
+    <t>20191228B3</t>
+  </si>
+  <si>
+    <t>0068699-01</t>
+  </si>
+  <si>
+    <t>NYIRAMINANI Tharcilla</t>
+  </si>
+  <si>
+    <t>ntahobavukira jmv</t>
+  </si>
+  <si>
+    <t>20191229B1</t>
+  </si>
+  <si>
+    <t>2019-12-29</t>
+  </si>
+  <si>
+    <t>0065424-03</t>
+  </si>
+  <si>
+    <t>HARERIMANA JESSY CHRISTIAN</t>
+  </si>
+  <si>
+    <t>20191229B2</t>
+  </si>
+  <si>
+    <t>20191230B1</t>
+  </si>
+  <si>
+    <t>2019-12-30</t>
+  </si>
+  <si>
+    <t>0073957-02</t>
+  </si>
+  <si>
+    <t>irakoze wase kenny</t>
+  </si>
+  <si>
+    <t>sgt nyandwi leonard</t>
+  </si>
+  <si>
+    <t>20191231B1</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>6015358-34</t>
+  </si>
+  <si>
+    <t>IRASUBIZA CYUSA JEDIDIAH</t>
+  </si>
+  <si>
+    <t>PC RURANGWA EMMANUEL</t>
   </si>
   <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Prepared By: Uzamushaka Claudine</t>
+    <t>Prepared By: kayonga</t>
   </si>
 </sst>
 </file>
@@ -538,10 +1276,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="P75" sqref="P75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -550,21 +1288,22 @@
     <col min="1" max="1" width="2.999268" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.997314" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="18.995361" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="19.995117" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="29.992676" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="12.996826" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="28.99292" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="7.998047" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="7.998047" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="15.996094" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="11.99707" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="11.99707" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="7.998047" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="7.998047" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="5.998535" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="9.997559" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +1315,7 @@
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -596,7 +1335,7 @@
       <c r="M2"/>
       <c r="N2"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -608,7 +1347,7 @@
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -620,7 +1359,7 @@
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -632,7 +1371,7 @@
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -652,7 +1391,7 @@
       <c r="O6"/>
       <c r="P6"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -702,142 +1441,3320 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D8" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="6">
+        <v>33</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="6">
         <v>828</v>
       </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
+      <c r="I8" s="6">
+        <v>544</v>
+      </c>
+      <c r="J8" s="6"/>
       <c r="K8" s="6">
         <v>0</v>
       </c>
       <c r="L8" s="6">
-        <v>13.92</v>
+        <v>0</v>
       </c>
       <c r="M8" s="6">
-        <v>742.2</v>
-      </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6">
-        <v>1584.12</v>
-      </c>
+        <v>17.2</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1026.3</v>
+      </c>
+      <c r="O8" s="6"/>
       <c r="P8" s="9">
-        <v>1346.502</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>2415.5</v>
+      </c>
+      <c r="Q8">
+        <v>2053.175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="3">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="D9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="6">
+        <v>828</v>
+      </c>
+      <c r="I9" s="6">
+        <v>466</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>237</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="9">
+        <v>1531</v>
+      </c>
+      <c r="Q9">
+        <v>1301.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="3">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>690</v>
+      </c>
+      <c r="M10" s="6">
+        <v>40.8</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="9">
+        <v>730.8</v>
+      </c>
+      <c r="Q10">
+        <v>621.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="3">
+        <v>4</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="6">
+        <v>690</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>50</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="9">
+        <v>740</v>
+      </c>
+      <c r="Q11">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="3">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="6">
+        <v>690</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1096.8</v>
+      </c>
+      <c r="O12" s="6"/>
+      <c r="P12" s="9">
+        <v>1795.4</v>
+      </c>
+      <c r="Q12">
+        <v>1526.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="3">
+        <v>6</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="6">
+        <v>690</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>17.2</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1266</v>
+      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="9">
+        <v>1973.2</v>
+      </c>
+      <c r="Q13">
+        <v>1677.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="3">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="6">
+        <v>690</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1087</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="N14" s="6">
+        <v>1768</v>
+      </c>
+      <c r="O14" s="6"/>
+      <c r="P14" s="9">
+        <v>3553.6</v>
+      </c>
+      <c r="Q14">
+        <v>3020.56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="3">
+        <v>8</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="6">
+        <v>690</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="N15" s="6">
+        <v>2691.4</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="9">
+        <v>3390</v>
+      </c>
+      <c r="Q15">
+        <v>2881.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="3">
+        <v>9</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
+        <v>690</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1087</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>17.2</v>
+      </c>
+      <c r="N16" s="6">
+        <v>672.6</v>
+      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="9">
+        <v>2466.8</v>
+      </c>
+      <c r="Q16">
+        <v>2096.78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="3">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="6">
+        <v>690</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1087</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <v>17.2</v>
+      </c>
+      <c r="N17" s="6">
+        <v>750.3</v>
+      </c>
+      <c r="O17" s="6"/>
+      <c r="P17" s="9">
+        <v>2544.5</v>
+      </c>
+      <c r="Q17">
+        <v>2162.825</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="3">
+        <v>11</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>544</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>180.4</v>
+      </c>
+      <c r="N18" s="6">
+        <v>1026.3</v>
+      </c>
+      <c r="O18" s="6"/>
+      <c r="P18" s="9">
+        <v>1750.7</v>
+      </c>
+      <c r="Q18">
+        <v>1488.095</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="3">
+        <v>12</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="6">
+        <v>828</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="N19" s="6">
+        <v>1298.7</v>
+      </c>
+      <c r="O19" s="6"/>
+      <c r="P19" s="9">
+        <v>2135.3</v>
+      </c>
+      <c r="Q19">
+        <v>1815.005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="3">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="6">
+        <v>828</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>17.2</v>
+      </c>
+      <c r="N20" s="6">
+        <v>738.1</v>
+      </c>
+      <c r="O20" s="6"/>
+      <c r="P20" s="9">
+        <v>1583.3</v>
+      </c>
+      <c r="Q20">
+        <v>1345.805</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="3">
+        <v>14</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="6">
+        <v>828</v>
+      </c>
+      <c r="I21" s="6">
+        <v>621</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6">
+        <v>1242</v>
+      </c>
+      <c r="L21" s="6">
+        <v>207</v>
+      </c>
+      <c r="M21" s="6">
+        <v>545.2</v>
+      </c>
+      <c r="N21" s="6">
+        <v>1279.7</v>
+      </c>
+      <c r="O21" s="6"/>
+      <c r="P21" s="9">
+        <v>4722.9</v>
+      </c>
+      <c r="Q21">
+        <v>4014.465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="3">
+        <v>15</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1.1994700835291E+15</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="6">
+        <v>690</v>
+      </c>
+      <c r="I22" s="6">
+        <v>933</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <v>171.8</v>
+      </c>
+      <c r="N22" s="6">
+        <v>396</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="9">
+        <v>2190.8</v>
+      </c>
+      <c r="Q22">
+        <v>1862.18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="3">
+        <v>16</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1.199170084923E+15</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="6">
+        <v>690</v>
+      </c>
+      <c r="I23" s="6">
+        <v>621</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6">
+        <v>0</v>
+      </c>
+      <c r="L23" s="6">
+        <v>0</v>
+      </c>
+      <c r="M23" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="N23" s="6">
+        <v>60.3</v>
+      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="9">
+        <v>1379.9</v>
+      </c>
+      <c r="Q23">
+        <v>1172.915</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="3">
+        <v>17</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1.199380007195E+15</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="6">
+        <v>690</v>
+      </c>
+      <c r="I24" s="6">
+        <v>389</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
+        <v>163.2</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6"/>
+      <c r="P24" s="9">
+        <v>1242.2</v>
+      </c>
+      <c r="Q24">
+        <v>1055.87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="3">
+        <v>18</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="6">
+        <v>690</v>
+      </c>
+      <c r="I25" s="6">
+        <v>1554</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6">
+        <v>0</v>
+      </c>
+      <c r="L25" s="6">
+        <v>0</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6">
+        <v>0</v>
+      </c>
+      <c r="O25" s="6"/>
+      <c r="P25" s="9">
+        <v>2244</v>
+      </c>
+      <c r="Q25">
+        <v>1907.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="3">
+        <v>19</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="6">
+        <v>690</v>
+      </c>
+      <c r="I26" s="6">
+        <v>1165</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6">
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
+        <v>17.2</v>
+      </c>
+      <c r="N26" s="6">
+        <v>750.3</v>
+      </c>
+      <c r="O26" s="6"/>
+      <c r="P26" s="9">
+        <v>2622.5</v>
+      </c>
+      <c r="Q26">
+        <v>2229.125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="3">
+        <v>20</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="6">
+        <v>690</v>
+      </c>
+      <c r="I27" s="6">
+        <v>544</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6">
+        <v>0</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0</v>
+      </c>
+      <c r="M27" s="6">
+        <v>189</v>
+      </c>
+      <c r="N27" s="6">
+        <v>1224.4</v>
+      </c>
+      <c r="O27" s="6"/>
+      <c r="P27" s="9">
+        <v>2647.4</v>
+      </c>
+      <c r="Q27">
+        <v>2250.29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="3">
+        <v>21</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6">
+        <v>690</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6">
+        <v>0</v>
+      </c>
+      <c r="L28" s="6">
+        <v>690</v>
+      </c>
+      <c r="M28" s="6">
+        <v>163.2</v>
+      </c>
+      <c r="N28" s="6">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6"/>
+      <c r="P28" s="9">
+        <v>1543.2</v>
+      </c>
+      <c r="Q28">
+        <v>1311.72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="3">
+        <v>22</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H29" s="6">
+        <v>690</v>
+      </c>
+      <c r="I29" s="6">
+        <v>4038</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6">
+        <v>0</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0</v>
+      </c>
+      <c r="M29" s="6">
+        <v>17.2</v>
+      </c>
+      <c r="N29" s="6">
+        <v>578.3</v>
+      </c>
+      <c r="O29" s="6"/>
+      <c r="P29" s="9">
+        <v>5323.5</v>
+      </c>
+      <c r="Q29">
+        <v>4524.975</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="3">
+        <v>23</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1.1995701951481E+15</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" s="6">
+        <v>690</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6">
+        <v>0</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6"/>
+      <c r="P30" s="9">
+        <v>690</v>
+      </c>
+      <c r="Q30">
+        <v>586.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="3">
+        <v>24</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1.1995701951481E+15</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" s="6">
+        <v>690</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6">
+        <v>0</v>
+      </c>
+      <c r="L31" s="6">
+        <v>0</v>
+      </c>
+      <c r="M31" s="6">
+        <v>0</v>
+      </c>
+      <c r="N31" s="6">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6"/>
+      <c r="P31" s="9">
+        <v>690</v>
+      </c>
+      <c r="Q31">
+        <v>586.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="3">
+        <v>25</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1.199170179763E+15</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" s="6">
+        <v>690</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6">
+        <v>0</v>
+      </c>
+      <c r="L32" s="6">
+        <v>0</v>
+      </c>
+      <c r="M32" s="6">
+        <v>25.8</v>
+      </c>
+      <c r="N32" s="6">
+        <v>398</v>
+      </c>
+      <c r="O32" s="6"/>
+      <c r="P32" s="9">
+        <v>1113.8</v>
+      </c>
+      <c r="Q32">
+        <v>946.73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="3">
+        <v>26</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1.199170179763E+15</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H33" s="6">
+        <v>690</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6">
+        <v>0</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0</v>
+      </c>
+      <c r="M33" s="6">
+        <v>17.2</v>
+      </c>
+      <c r="N33" s="6">
+        <v>1457.2</v>
+      </c>
+      <c r="O33" s="6"/>
+      <c r="P33" s="9">
+        <v>2164.4</v>
+      </c>
+      <c r="Q33">
+        <v>1839.74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="3">
+        <v>27</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1111</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6">
+        <v>0</v>
+      </c>
+      <c r="L34" s="6">
+        <v>690</v>
+      </c>
+      <c r="M34" s="6">
+        <v>163.2</v>
+      </c>
+      <c r="N34" s="6">
+        <v>0</v>
+      </c>
+      <c r="O34" s="6"/>
+      <c r="P34" s="9">
+        <v>853.2</v>
+      </c>
+      <c r="Q34">
+        <v>725.22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="3">
+        <v>28</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="6">
+        <v>11</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H35" s="6">
+        <v>828</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6">
+        <v>0</v>
+      </c>
+      <c r="L35" s="6">
+        <v>690</v>
+      </c>
+      <c r="M35" s="6">
+        <v>98.8</v>
+      </c>
+      <c r="N35" s="6">
+        <v>990</v>
+      </c>
+      <c r="O35" s="6"/>
+      <c r="P35" s="9">
+        <v>2606.8</v>
+      </c>
+      <c r="Q35">
+        <v>2215.78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="3">
+        <v>29</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H36" s="6">
+        <v>690</v>
+      </c>
+      <c r="I36" s="6">
+        <v>1087</v>
+      </c>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6">
+        <v>0</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0</v>
+      </c>
+      <c r="M36" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="N36" s="6">
+        <v>384.3</v>
+      </c>
+      <c r="O36" s="6"/>
+      <c r="P36" s="9">
+        <v>2169.9</v>
+      </c>
+      <c r="Q36">
+        <v>1844.415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="3">
         <v>30</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="B37" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H37" s="6">
+        <v>690</v>
+      </c>
+      <c r="I37" s="6">
+        <v>1631</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6">
+        <v>828</v>
+      </c>
+      <c r="L37" s="6">
+        <v>207</v>
+      </c>
+      <c r="M37" s="6">
+        <v>553.8</v>
+      </c>
+      <c r="N37" s="6">
+        <v>1757.6</v>
+      </c>
+      <c r="O37" s="6"/>
+      <c r="P37" s="9">
+        <v>5667.4</v>
+      </c>
+      <c r="Q37">
+        <v>4817.29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="3">
+        <v>31</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H38" s="6">
+        <v>690</v>
+      </c>
+      <c r="I38" s="6">
+        <v>1347</v>
+      </c>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6">
+        <v>0</v>
+      </c>
+      <c r="L38" s="6">
+        <v>0</v>
+      </c>
+      <c r="M38" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="N38" s="6">
+        <v>468</v>
+      </c>
+      <c r="O38" s="6"/>
+      <c r="P38" s="9">
+        <v>2513.6</v>
+      </c>
+      <c r="Q38">
+        <v>2136.56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="3">
+        <v>32</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H39" s="6">
+        <v>690</v>
+      </c>
+      <c r="I39" s="6">
+        <v>1347</v>
+      </c>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6">
+        <v>0</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0</v>
+      </c>
+      <c r="M39" s="6">
+        <v>171.8</v>
+      </c>
+      <c r="N39" s="6">
+        <v>402.1</v>
+      </c>
+      <c r="O39" s="6"/>
+      <c r="P39" s="9">
+        <v>2610.9</v>
+      </c>
+      <c r="Q39">
+        <v>2219.265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="3">
         <v>33</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="B40" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H40" s="6">
+        <v>690</v>
+      </c>
+      <c r="I40" s="6">
+        <v>1087</v>
+      </c>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6">
+        <v>0</v>
+      </c>
+      <c r="L40" s="6">
+        <v>0</v>
+      </c>
+      <c r="M40" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="N40" s="6">
+        <v>1237.8</v>
+      </c>
+      <c r="O40" s="6"/>
+      <c r="P40" s="9">
+        <v>3023.4</v>
+      </c>
+      <c r="Q40">
+        <v>2569.89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="3">
         <v>34</v>
       </c>
-      <c r="G9" s="6">
+      <c r="B41" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H41" s="6">
+        <v>690</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6">
+        <v>0</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0</v>
+      </c>
+      <c r="M41" s="6">
+        <v>0</v>
+      </c>
+      <c r="N41" s="6">
+        <v>2390.4</v>
+      </c>
+      <c r="O41" s="6"/>
+      <c r="P41" s="9">
+        <v>3080.4</v>
+      </c>
+      <c r="Q41">
+        <v>2618.34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="3">
+        <v>35</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6">
+        <v>0</v>
+      </c>
+      <c r="L42" s="6">
+        <v>690</v>
+      </c>
+      <c r="M42" s="6">
+        <v>81.6</v>
+      </c>
+      <c r="N42" s="6">
+        <v>0</v>
+      </c>
+      <c r="O42" s="6"/>
+      <c r="P42" s="9">
+        <v>771.6</v>
+      </c>
+      <c r="Q42">
+        <v>655.86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="3">
+        <v>36</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1.1992702220512E+16</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H43" s="6">
+        <v>690</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0</v>
+      </c>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6">
+        <v>0</v>
+      </c>
+      <c r="L43" s="6">
+        <v>0</v>
+      </c>
+      <c r="M43" s="6">
+        <v>0</v>
+      </c>
+      <c r="N43" s="6">
+        <v>0</v>
+      </c>
+      <c r="O43" s="6"/>
+      <c r="P43" s="9">
+        <v>690</v>
+      </c>
+      <c r="Q43">
+        <v>586.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="3">
+        <v>37</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H44" s="6">
+        <v>690</v>
+      </c>
+      <c r="I44" s="6">
+        <v>1087</v>
+      </c>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6">
+        <v>0</v>
+      </c>
+      <c r="L44" s="6">
+        <v>690</v>
+      </c>
+      <c r="M44" s="6">
+        <v>107.4</v>
+      </c>
+      <c r="N44" s="6">
+        <v>536.8</v>
+      </c>
+      <c r="O44" s="6"/>
+      <c r="P44" s="9">
+        <v>3111.2</v>
+      </c>
+      <c r="Q44">
+        <v>2644.52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="3">
+        <v>38</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1.1807003626308E+14</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H45" s="6">
+        <v>690</v>
+      </c>
+      <c r="I45" s="6">
+        <v>621</v>
+      </c>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6">
+        <v>0</v>
+      </c>
+      <c r="L45" s="6">
+        <v>0</v>
+      </c>
+      <c r="M45" s="6">
+        <v>25.8</v>
+      </c>
+      <c r="N45" s="6">
+        <v>763.3</v>
+      </c>
+      <c r="O45" s="6"/>
+      <c r="P45" s="9">
+        <v>2100.1</v>
+      </c>
+      <c r="Q45">
+        <v>1785.085</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="3">
+        <v>39</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="6">
+        <v>11</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H46" s="6">
+        <v>690</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6">
+        <v>0</v>
+      </c>
+      <c r="L46" s="6">
+        <v>0</v>
+      </c>
+      <c r="M46" s="6">
+        <v>25.8</v>
+      </c>
+      <c r="N46" s="6">
+        <v>912.4</v>
+      </c>
+      <c r="O46" s="6"/>
+      <c r="P46" s="9">
+        <v>1628.2</v>
+      </c>
+      <c r="Q46">
+        <v>1383.97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="3">
+        <v>40</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6">
+        <v>0</v>
+      </c>
+      <c r="L47" s="6">
+        <v>690</v>
+      </c>
+      <c r="M47" s="6">
+        <v>0</v>
+      </c>
+      <c r="N47" s="6">
+        <v>0</v>
+      </c>
+      <c r="O47" s="6"/>
+      <c r="P47" s="9">
+        <v>690</v>
+      </c>
+      <c r="Q47">
+        <v>586.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="3">
+        <v>41</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H48" s="6">
+        <v>690</v>
+      </c>
+      <c r="I48" s="6">
+        <v>621</v>
+      </c>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6">
+        <v>0</v>
+      </c>
+      <c r="L48" s="6">
+        <v>0</v>
+      </c>
+      <c r="M48" s="6">
+        <v>17.2</v>
+      </c>
+      <c r="N48" s="6">
+        <v>770.8</v>
+      </c>
+      <c r="O48" s="6"/>
+      <c r="P48" s="9">
+        <v>2099</v>
+      </c>
+      <c r="Q48">
+        <v>1784.15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="3">
+        <v>42</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H49" s="6">
+        <v>690</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6">
+        <v>0</v>
+      </c>
+      <c r="L49" s="6">
+        <v>0</v>
+      </c>
+      <c r="M49" s="6">
+        <v>17.2</v>
+      </c>
+      <c r="N49" s="6">
+        <v>773.8</v>
+      </c>
+      <c r="O49" s="6"/>
+      <c r="P49" s="9">
+        <v>1481</v>
+      </c>
+      <c r="Q49">
+        <v>1258.85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="3">
+        <v>43</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E50" s="6">
+        <v>1.199070048659E+15</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H50" s="6">
+        <v>690</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6">
+        <v>0</v>
+      </c>
+      <c r="L50" s="6">
+        <v>0</v>
+      </c>
+      <c r="M50" s="6">
+        <v>90.2</v>
+      </c>
+      <c r="N50" s="6">
+        <v>468</v>
+      </c>
+      <c r="O50" s="6"/>
+      <c r="P50" s="9">
+        <v>1248.2</v>
+      </c>
+      <c r="Q50">
+        <v>1060.97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="3">
+        <v>44</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E51" s="6">
+        <v>111</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H51" s="6">
+        <v>690</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6">
+        <v>0</v>
+      </c>
+      <c r="L51" s="6">
+        <v>0</v>
+      </c>
+      <c r="M51" s="6">
+        <v>90.2</v>
+      </c>
+      <c r="N51" s="6">
+        <v>402.1</v>
+      </c>
+      <c r="O51" s="6"/>
+      <c r="P51" s="9">
+        <v>1182.3</v>
+      </c>
+      <c r="Q51">
+        <v>1004.955</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="3">
+        <v>45</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6">
         <v>828</v>
       </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>13.92</v>
-      </c>
-      <c r="M9" s="6">
-        <v>1514.4</v>
-      </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6">
-        <v>2356.32</v>
-      </c>
-      <c r="P9" s="9">
-        <v>2002.872</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
-        <v>1656</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <v>27.84</v>
-      </c>
-      <c r="M10" s="7">
-        <v>2256.6</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>3940.44</v>
-      </c>
-      <c r="P10" s="10">
-        <v>3349.374</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
+      <c r="I52" s="6">
+        <v>1165</v>
+      </c>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6">
+        <v>414</v>
+      </c>
+      <c r="L52" s="6">
+        <v>207</v>
+      </c>
+      <c r="M52" s="6">
+        <v>545.2</v>
+      </c>
+      <c r="N52" s="6">
+        <v>1688</v>
+      </c>
+      <c r="O52" s="6"/>
+      <c r="P52" s="9">
+        <v>4847.2</v>
+      </c>
+      <c r="Q52">
+        <v>4120.12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="3">
+        <v>46</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6">
+        <v>0</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6">
+        <v>0</v>
+      </c>
+      <c r="L53" s="6">
+        <v>690</v>
+      </c>
+      <c r="M53" s="6">
+        <v>163.2</v>
+      </c>
+      <c r="N53" s="6">
+        <v>0</v>
+      </c>
+      <c r="O53" s="6"/>
+      <c r="P53" s="9">
+        <v>853.2</v>
+      </c>
+      <c r="Q53">
+        <v>725.22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="3">
+        <v>47</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6">
+        <v>0</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6">
+        <v>0</v>
+      </c>
+      <c r="L54" s="6">
+        <v>690</v>
+      </c>
+      <c r="M54" s="6">
+        <v>163.2</v>
+      </c>
+      <c r="N54" s="6">
+        <v>0</v>
+      </c>
+      <c r="O54" s="6"/>
+      <c r="P54" s="9">
+        <v>853.2</v>
+      </c>
+      <c r="Q54">
+        <v>725.22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="3">
+        <v>48</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H55" s="6">
+        <v>828</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0</v>
+      </c>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6">
+        <v>0</v>
+      </c>
+      <c r="L55" s="6">
+        <v>0</v>
+      </c>
+      <c r="M55" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="N55" s="6">
+        <v>46</v>
+      </c>
+      <c r="O55" s="6"/>
+      <c r="P55" s="9">
+        <v>882.6</v>
+      </c>
+      <c r="Q55">
+        <v>750.21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="3">
+        <v>49</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H56" s="6">
+        <v>828</v>
+      </c>
+      <c r="I56" s="6">
+        <v>621</v>
+      </c>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6">
+        <v>0</v>
+      </c>
+      <c r="L56" s="6">
+        <v>0</v>
+      </c>
+      <c r="M56" s="6">
+        <v>25.8</v>
+      </c>
+      <c r="N56" s="6">
+        <v>763.3</v>
+      </c>
+      <c r="O56" s="6"/>
+      <c r="P56" s="9">
+        <v>2238.1</v>
+      </c>
+      <c r="Q56">
+        <v>1902.385</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="3">
+        <v>50</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H57" s="6">
+        <v>828</v>
+      </c>
+      <c r="I57" s="6">
+        <v>1087</v>
+      </c>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6">
+        <v>0</v>
+      </c>
+      <c r="L57" s="6">
+        <v>207</v>
+      </c>
+      <c r="M57" s="6">
+        <v>404.8</v>
+      </c>
+      <c r="N57" s="6">
+        <v>1822.3</v>
+      </c>
+      <c r="O57" s="6"/>
+      <c r="P57" s="9">
+        <v>4349.1</v>
+      </c>
+      <c r="Q57">
+        <v>3696.735</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="3">
+        <v>51</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="H58" s="6">
+        <v>690</v>
+      </c>
+      <c r="I58" s="6">
+        <v>621</v>
+      </c>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6">
+        <v>0</v>
+      </c>
+      <c r="L58" s="6">
+        <v>0</v>
+      </c>
+      <c r="M58" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="N58" s="6">
+        <v>1340.4</v>
+      </c>
+      <c r="O58" s="6"/>
+      <c r="P58" s="9">
+        <v>2660</v>
+      </c>
+      <c r="Q58">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="3">
+        <v>52</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H59" s="6">
+        <v>690</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0</v>
+      </c>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6">
+        <v>0</v>
+      </c>
+      <c r="L59" s="6">
+        <v>1725</v>
+      </c>
+      <c r="M59" s="6">
+        <v>187.2</v>
+      </c>
+      <c r="N59" s="6">
+        <v>0</v>
+      </c>
+      <c r="O59" s="6"/>
+      <c r="P59" s="9">
+        <v>2602.2</v>
+      </c>
+      <c r="Q59">
+        <v>2211.87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="3">
+        <v>53</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H60" s="6">
+        <v>690</v>
+      </c>
+      <c r="I60" s="6">
+        <v>0</v>
+      </c>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6">
+        <v>0</v>
+      </c>
+      <c r="L60" s="6">
+        <v>1725</v>
+      </c>
+      <c r="M60" s="6">
+        <v>187.2</v>
+      </c>
+      <c r="N60" s="6">
+        <v>0</v>
+      </c>
+      <c r="O60" s="6"/>
+      <c r="P60" s="9">
+        <v>2602.2</v>
+      </c>
+      <c r="Q60">
+        <v>2211.87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="3">
+        <v>54</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H61" s="6">
+        <v>690</v>
+      </c>
+      <c r="I61" s="6">
+        <v>621</v>
+      </c>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6">
+        <v>0</v>
+      </c>
+      <c r="L61" s="6">
+        <v>0</v>
+      </c>
+      <c r="M61" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="N61" s="6">
+        <v>384.3</v>
+      </c>
+      <c r="O61" s="6"/>
+      <c r="P61" s="9">
+        <v>1703.9</v>
+      </c>
+      <c r="Q61">
+        <v>1448.315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="3">
+        <v>55</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E62" s="6">
+        <v>111</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H62" s="6">
+        <v>690</v>
+      </c>
+      <c r="I62" s="6">
+        <v>0</v>
+      </c>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6">
+        <v>0</v>
+      </c>
+      <c r="L62" s="6">
+        <v>0</v>
+      </c>
+      <c r="M62" s="6">
+        <v>0</v>
+      </c>
+      <c r="N62" s="6">
+        <v>0</v>
+      </c>
+      <c r="O62" s="6"/>
+      <c r="P62" s="9">
+        <v>690</v>
+      </c>
+      <c r="Q62">
+        <v>586.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="3">
+        <v>56</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E63" s="6">
+        <v>11111</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H63" s="6">
+        <v>690</v>
+      </c>
+      <c r="I63" s="6">
+        <v>0</v>
+      </c>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6">
+        <v>0</v>
+      </c>
+      <c r="L63" s="6">
+        <v>0</v>
+      </c>
+      <c r="M63" s="6">
+        <v>0</v>
+      </c>
+      <c r="N63" s="6">
+        <v>1536.2</v>
+      </c>
+      <c r="O63" s="6"/>
+      <c r="P63" s="9">
+        <v>2226.2</v>
+      </c>
+      <c r="Q63">
+        <v>1892.27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="3">
+        <v>57</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="H64" s="6">
+        <v>828</v>
+      </c>
+      <c r="I64" s="6">
+        <v>621</v>
+      </c>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6">
+        <v>0</v>
+      </c>
+      <c r="L64" s="6">
+        <v>0</v>
+      </c>
+      <c r="M64" s="6">
+        <v>17.2</v>
+      </c>
+      <c r="N64" s="6">
+        <v>450</v>
+      </c>
+      <c r="O64" s="6"/>
+      <c r="P64" s="9">
+        <v>1916.2</v>
+      </c>
+      <c r="Q64">
+        <v>1628.77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="3">
+        <v>58</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H65" s="6">
+        <v>828</v>
+      </c>
+      <c r="I65" s="6">
+        <v>544</v>
+      </c>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6">
+        <v>0</v>
+      </c>
+      <c r="L65" s="6">
+        <v>0</v>
+      </c>
+      <c r="M65" s="6">
+        <v>17.2</v>
+      </c>
+      <c r="N65" s="6">
+        <v>1416</v>
+      </c>
+      <c r="O65" s="6"/>
+      <c r="P65" s="9">
+        <v>2805.2</v>
+      </c>
+      <c r="Q65">
+        <v>2384.42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="3">
+        <v>59</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H66" s="6">
+        <v>690</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0</v>
+      </c>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6">
+        <v>0</v>
+      </c>
+      <c r="L66" s="6">
+        <v>0</v>
+      </c>
+      <c r="M66" s="6">
+        <v>25.8</v>
+      </c>
+      <c r="N66" s="6">
+        <v>763.3</v>
+      </c>
+      <c r="O66" s="6"/>
+      <c r="P66" s="9">
+        <v>1479.1</v>
+      </c>
+      <c r="Q66">
+        <v>1257.235</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="3">
+        <v>60</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="H67" s="6">
+        <v>690</v>
+      </c>
+      <c r="I67" s="6">
+        <v>0</v>
+      </c>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6">
+        <v>0</v>
+      </c>
+      <c r="L67" s="6">
+        <v>0</v>
+      </c>
+      <c r="M67" s="6">
+        <v>720</v>
+      </c>
+      <c r="N67" s="6">
+        <v>0</v>
+      </c>
+      <c r="O67" s="6"/>
+      <c r="P67" s="9">
+        <v>1410</v>
+      </c>
+      <c r="Q67">
+        <v>1198.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="3">
+        <v>61</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="H68" s="6">
+        <v>828</v>
+      </c>
+      <c r="I68" s="6">
+        <v>1087</v>
+      </c>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6">
+        <v>0</v>
+      </c>
+      <c r="L68" s="6">
+        <v>0</v>
+      </c>
+      <c r="M68" s="6">
+        <v>25.8</v>
+      </c>
+      <c r="N68" s="6">
+        <v>773.3</v>
+      </c>
+      <c r="O68" s="6"/>
+      <c r="P68" s="9">
+        <v>2714.1</v>
+      </c>
+      <c r="Q68">
+        <v>2306.985</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="3">
+        <v>62</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="H69" s="6">
+        <v>828</v>
+      </c>
+      <c r="I69" s="6">
+        <v>621</v>
+      </c>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6">
+        <v>0</v>
+      </c>
+      <c r="L69" s="6">
+        <v>0</v>
+      </c>
+      <c r="M69" s="6">
+        <v>17.2</v>
+      </c>
+      <c r="N69" s="6">
+        <v>672.6</v>
+      </c>
+      <c r="O69" s="6"/>
+      <c r="P69" s="9">
+        <v>2138.8</v>
+      </c>
+      <c r="Q69">
+        <v>1817.98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="3">
+        <v>63</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H70" s="6">
+        <v>828</v>
+      </c>
+      <c r="I70" s="6">
+        <v>0</v>
+      </c>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6">
+        <v>0</v>
+      </c>
+      <c r="L70" s="6">
+        <v>0</v>
+      </c>
+      <c r="M70" s="6">
+        <v>25.8</v>
+      </c>
+      <c r="N70" s="6">
+        <v>245.8</v>
+      </c>
+      <c r="O70" s="6"/>
+      <c r="P70" s="9">
+        <v>1099.6</v>
+      </c>
+      <c r="Q70">
+        <v>934.66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="3">
+        <v>64</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="H71" s="6">
+        <v>828</v>
+      </c>
+      <c r="I71" s="6">
+        <v>621</v>
+      </c>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6">
+        <v>0</v>
+      </c>
+      <c r="L71" s="6">
+        <v>0</v>
+      </c>
+      <c r="M71" s="6">
+        <v>17.2</v>
+      </c>
+      <c r="N71" s="6">
+        <v>1456</v>
+      </c>
+      <c r="O71" s="6"/>
+      <c r="P71" s="9">
+        <v>2922.2</v>
+      </c>
+      <c r="Q71">
+        <v>2483.87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="3">
+        <v>65</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6">
+        <v>828</v>
+      </c>
+      <c r="I72" s="6">
+        <v>0</v>
+      </c>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6">
+        <v>0</v>
+      </c>
+      <c r="L72" s="6">
+        <v>690</v>
+      </c>
+      <c r="M72" s="6">
+        <v>90.2</v>
+      </c>
+      <c r="N72" s="6">
+        <v>1237.8</v>
+      </c>
+      <c r="O72" s="6"/>
+      <c r="P72" s="9">
+        <v>2846</v>
+      </c>
+      <c r="Q72">
+        <v>2419.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="3">
+        <v>66</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H73" s="6">
+        <v>690</v>
+      </c>
+      <c r="I73" s="6">
+        <v>0</v>
+      </c>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6">
+        <v>0</v>
+      </c>
+      <c r="L73" s="6">
+        <v>0</v>
+      </c>
+      <c r="M73" s="6">
+        <v>25.8</v>
+      </c>
+      <c r="N73" s="6">
+        <v>738</v>
+      </c>
+      <c r="O73" s="6"/>
+      <c r="P73" s="9">
+        <v>1453.8</v>
+      </c>
+      <c r="Q73">
+        <v>1235.73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="3">
+        <v>67</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H74" s="6">
+        <v>690</v>
+      </c>
+      <c r="I74" s="6">
+        <v>0</v>
+      </c>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6">
+        <v>0</v>
+      </c>
+      <c r="L74" s="6">
+        <v>0</v>
+      </c>
+      <c r="M74" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="N74" s="6">
+        <v>666.2</v>
+      </c>
+      <c r="O74" s="6"/>
+      <c r="P74" s="9">
+        <v>1364.8</v>
+      </c>
+      <c r="Q74">
+        <v>1160.08</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7">
+        <v>43746</v>
+      </c>
+      <c r="I75" s="7">
+        <v>31117</v>
+      </c>
+      <c r="J75" s="7">
+        <v>0</v>
+      </c>
+      <c r="K75" s="7">
+        <v>2484</v>
+      </c>
+      <c r="L75" s="7">
+        <v>11178</v>
+      </c>
+      <c r="M75" s="7">
+        <v>5872</v>
+      </c>
+      <c r="N75" s="7">
+        <v>46972.6</v>
+      </c>
+      <c r="O75" s="7">
+        <v>0</v>
+      </c>
+      <c r="P75" s="10">
+        <v>141369.6</v>
+      </c>
+      <c r="Q75">
+        <v>120164.16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="B78" t="s">
+        <v>282</v>
+      </c>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -854,8 +4771,8 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="B78:F78"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
